--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N2">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O2">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P2">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q2">
-        <v>562.83590882514</v>
+        <v>897.1800655452182</v>
       </c>
       <c r="R2">
-        <v>562.83590882514</v>
+        <v>8074.620589906964</v>
       </c>
       <c r="S2">
-        <v>0.01079064371771274</v>
+        <v>0.01443500555990302</v>
       </c>
       <c r="T2">
-        <v>0.01079064371771274</v>
+        <v>0.01443500555990302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N3">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P3">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q3">
-        <v>812.9546238077601</v>
+        <v>1146.677302758299</v>
       </c>
       <c r="R3">
-        <v>812.9546238077601</v>
+        <v>10320.09572482469</v>
       </c>
       <c r="S3">
-        <v>0.01558589913441731</v>
+        <v>0.01844924321927703</v>
       </c>
       <c r="T3">
-        <v>0.01558589913441731</v>
+        <v>0.01844924321927703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N4">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P4">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q4">
-        <v>182.8808847174068</v>
+        <v>264.2251068691471</v>
       </c>
       <c r="R4">
-        <v>182.8808847174068</v>
+        <v>2378.025961822324</v>
       </c>
       <c r="S4">
-        <v>0.003506177269117212</v>
+        <v>0.004251198876564736</v>
       </c>
       <c r="T4">
-        <v>0.003506177269117212</v>
+        <v>0.004251198876564737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N5">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P5">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q5">
-        <v>218.774083415265</v>
+        <v>314.4044978390574</v>
       </c>
       <c r="R5">
-        <v>218.774083415265</v>
+        <v>2829.640480551517</v>
       </c>
       <c r="S5">
-        <v>0.004194318720230607</v>
+        <v>0.005058550505808772</v>
       </c>
       <c r="T5">
-        <v>0.004194318720230607</v>
+        <v>0.005058550505808774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N6">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P6">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q6">
-        <v>3532.442289199834</v>
+        <v>5180.232774725808</v>
       </c>
       <c r="R6">
-        <v>3532.442289199834</v>
+        <v>46622.09497253226</v>
       </c>
       <c r="S6">
-        <v>0.06772369281786383</v>
+        <v>0.08334635573887494</v>
       </c>
       <c r="T6">
-        <v>0.06772369281786383</v>
+        <v>0.08334635573887494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N7">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P7">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q7">
-        <v>879.7533701805335</v>
+        <v>1574.615755668762</v>
       </c>
       <c r="R7">
-        <v>879.7533701805335</v>
+        <v>14171.54180101886</v>
       </c>
       <c r="S7">
-        <v>0.01686655920175923</v>
+        <v>0.02533447638961602</v>
       </c>
       <c r="T7">
-        <v>0.01686655920175923</v>
+        <v>0.02533447638961603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N8">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O8">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P8">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q8">
-        <v>559.2535215220715</v>
+        <v>648.3229160816627</v>
       </c>
       <c r="R8">
-        <v>559.2535215220715</v>
+        <v>5834.906244734964</v>
       </c>
       <c r="S8">
-        <v>0.01072196248319989</v>
+        <v>0.01043106646887449</v>
       </c>
       <c r="T8">
-        <v>0.01072196248319989</v>
+        <v>0.01043106646887449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N9">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P9">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q9">
-        <v>807.7802589944366</v>
+        <v>828.615348555632</v>
       </c>
       <c r="R9">
-        <v>807.7802589944366</v>
+        <v>7457.538137000688</v>
       </c>
       <c r="S9">
-        <v>0.01548669663811143</v>
+        <v>0.01333184677498687</v>
       </c>
       <c r="T9">
-        <v>0.01548669663811143</v>
+        <v>0.01333184677498687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N10">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P10">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q10">
-        <v>181.7168684399928</v>
+        <v>190.9351292633693</v>
       </c>
       <c r="R10">
-        <v>181.7168684399928</v>
+        <v>1718.416163370324</v>
       </c>
       <c r="S10">
-        <v>0.003483860844855278</v>
+        <v>0.003072013922670718</v>
       </c>
       <c r="T10">
-        <v>0.003483860844855278</v>
+        <v>0.00307201392267072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N11">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P11">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q11">
-        <v>217.3816109621423</v>
+        <v>227.1959093789463</v>
       </c>
       <c r="R11">
-        <v>217.3816109621423</v>
+        <v>2044.763184410517</v>
       </c>
       <c r="S11">
-        <v>0.004167622352971913</v>
+        <v>0.003655424748073631</v>
       </c>
       <c r="T11">
-        <v>0.004167622352971913</v>
+        <v>0.003655424748073632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N12">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P12">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q12">
-        <v>3509.958691036976</v>
+        <v>3743.355149616586</v>
       </c>
       <c r="R12">
-        <v>3509.958691036976</v>
+        <v>33690.19634654927</v>
       </c>
       <c r="S12">
-        <v>0.06729263912448089</v>
+        <v>0.06022799042527726</v>
       </c>
       <c r="T12">
-        <v>0.06729263912448089</v>
+        <v>0.06022799042527727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N13">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P13">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q13">
-        <v>874.1538388539961</v>
+        <v>1137.853500794096</v>
       </c>
       <c r="R13">
-        <v>874.1538388539961</v>
+        <v>10240.68150714686</v>
       </c>
       <c r="S13">
-        <v>0.01675920544805691</v>
+        <v>0.01830727436006554</v>
       </c>
       <c r="T13">
-        <v>0.01675920544805691</v>
+        <v>0.01830727436006555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N14">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O14">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P14">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q14">
-        <v>884.3369542786324</v>
+        <v>1147.313838726524</v>
       </c>
       <c r="R14">
-        <v>884.3369542786324</v>
+        <v>10325.82454853872</v>
       </c>
       <c r="S14">
-        <v>0.01695443529881921</v>
+        <v>0.01845948464192259</v>
       </c>
       <c r="T14">
-        <v>0.01695443529881921</v>
+        <v>0.01845948464192259</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N15">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P15">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q15">
-        <v>1277.327556242044</v>
+        <v>1466.370897584208</v>
       </c>
       <c r="R15">
-        <v>1277.327556242044</v>
+        <v>13197.33807825787</v>
       </c>
       <c r="S15">
-        <v>0.02448881877312254</v>
+        <v>0.02359289163056109</v>
       </c>
       <c r="T15">
-        <v>0.02448881877312254</v>
+        <v>0.02359289163056109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N16">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P16">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q16">
-        <v>287.3454270612618</v>
+        <v>337.891058096284</v>
       </c>
       <c r="R16">
-        <v>287.3454270612618</v>
+        <v>3041.019522866556</v>
       </c>
       <c r="S16">
-        <v>0.005508962876594615</v>
+        <v>0.005436432985498103</v>
       </c>
       <c r="T16">
-        <v>0.005508962876594615</v>
+        <v>0.005436432985498104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N17">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P17">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q17">
-        <v>343.7414059213154</v>
+        <v>402.060461641447</v>
       </c>
       <c r="R17">
-        <v>343.7414059213154</v>
+        <v>3618.544154773023</v>
       </c>
       <c r="S17">
-        <v>0.006590181941420772</v>
+        <v>0.006468874222795526</v>
       </c>
       <c r="T17">
-        <v>0.006590181941420772</v>
+        <v>0.006468874222795528</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N18">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P18">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q18">
-        <v>5550.230904273264</v>
+        <v>6624.481504340862</v>
       </c>
       <c r="R18">
-        <v>5550.230904273264</v>
+        <v>59620.33353906775</v>
       </c>
       <c r="S18">
-        <v>0.1064085700645265</v>
+        <v>0.1065833170162156</v>
       </c>
       <c r="T18">
-        <v>0.1064085700645265</v>
+        <v>0.1065833170162156</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N19">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P19">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q19">
-        <v>1382.282835375241</v>
+        <v>2013.618577289424</v>
       </c>
       <c r="R19">
-        <v>1382.282835375241</v>
+        <v>18122.56719560482</v>
       </c>
       <c r="S19">
-        <v>0.02650101274593331</v>
+        <v>0.03239772758552434</v>
       </c>
       <c r="T19">
-        <v>0.02650101274593331</v>
+        <v>0.03239772758552435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N20">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O20">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P20">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q20">
-        <v>1019.883323503418</v>
+        <v>1204.222580758259</v>
       </c>
       <c r="R20">
-        <v>1019.883323503418</v>
+        <v>10838.00322682434</v>
       </c>
       <c r="S20">
-        <v>0.01955311913295355</v>
+        <v>0.01937510686669412</v>
       </c>
       <c r="T20">
-        <v>0.01955311913295355</v>
+        <v>0.01937510686669413</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N21">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P21">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q21">
-        <v>1473.109392251156</v>
+        <v>1539.105419139434</v>
       </c>
       <c r="R21">
-        <v>1473.109392251156</v>
+        <v>13851.94877225491</v>
       </c>
       <c r="S21">
-        <v>0.028242332018544</v>
+        <v>0.02476313968150116</v>
       </c>
       <c r="T21">
-        <v>0.028242332018544</v>
+        <v>0.02476313968150117</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N22">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P22">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q22">
-        <v>331.3881747526895</v>
+        <v>354.6510364134417</v>
       </c>
       <c r="R22">
-        <v>331.3881747526895</v>
+        <v>3191.859327720976</v>
       </c>
       <c r="S22">
-        <v>0.006353346810234074</v>
+        <v>0.005706089422910145</v>
       </c>
       <c r="T22">
-        <v>0.006353346810234074</v>
+        <v>0.005706089422910146</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N23">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P23">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q23">
-        <v>396.4282232022511</v>
+        <v>422.0033528717231</v>
       </c>
       <c r="R23">
-        <v>396.4282232022511</v>
+        <v>3798.030175845507</v>
       </c>
       <c r="S23">
-        <v>0.007600289265748288</v>
+        <v>0.006789741523402159</v>
       </c>
       <c r="T23">
-        <v>0.007600289265748288</v>
+        <v>0.00678974152340216</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N24">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P24">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q24">
-        <v>6400.940177241635</v>
+        <v>6953.067194061978</v>
       </c>
       <c r="R24">
-        <v>6400.940177241635</v>
+        <v>62577.6047465578</v>
       </c>
       <c r="S24">
-        <v>0.1227182982251156</v>
+        <v>0.1118700330726479</v>
       </c>
       <c r="T24">
-        <v>0.1227182982251156</v>
+        <v>0.1118700330726479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N25">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O25">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P25">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q25">
-        <v>1594.151646997719</v>
+        <v>2113.49752609777</v>
       </c>
       <c r="R25">
-        <v>1594.151646997719</v>
+        <v>19021.47773487994</v>
       </c>
       <c r="S25">
-        <v>0.03056294416371644</v>
+        <v>0.03400471066142404</v>
       </c>
       <c r="T25">
-        <v>0.03056294416371644</v>
+        <v>0.03400471066142404</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H26">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N26">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O26">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P26">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q26">
-        <v>1410.732996523787</v>
+        <v>1667.10990684651</v>
       </c>
       <c r="R26">
-        <v>1410.732996523787</v>
+        <v>15003.98916161859</v>
       </c>
       <c r="S26">
-        <v>0.02704645689377791</v>
+        <v>0.02682264318888382</v>
       </c>
       <c r="T26">
-        <v>0.02704645689377791</v>
+        <v>0.02682264318888382</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H27">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N27">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P27">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q27">
-        <v>2037.648796922252</v>
+        <v>2130.717305029163</v>
       </c>
       <c r="R27">
-        <v>2037.648796922252</v>
+        <v>19176.45574526246</v>
       </c>
       <c r="S27">
-        <v>0.03906563501840291</v>
+        <v>0.03428176497210345</v>
       </c>
       <c r="T27">
-        <v>0.03906563501840291</v>
+        <v>0.03428176497210346</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H28">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N28">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O28">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P28">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q28">
-        <v>458.385995738701</v>
+        <v>490.974231612519</v>
       </c>
       <c r="R28">
-        <v>458.385995738701</v>
+        <v>4418.768084512672</v>
       </c>
       <c r="S28">
-        <v>0.008788138581154396</v>
+        <v>0.007899435169448299</v>
       </c>
       <c r="T28">
-        <v>0.008788138581154396</v>
+        <v>0.007899435169448301</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H29">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N29">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O29">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P29">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q29">
-        <v>548.3513283692181</v>
+        <v>584.2158929223084</v>
       </c>
       <c r="R29">
-        <v>548.3513283692181</v>
+        <v>5257.943036300775</v>
       </c>
       <c r="S29">
-        <v>0.01051294653341855</v>
+        <v>0.009399628888758669</v>
       </c>
       <c r="T29">
-        <v>0.01051294653341855</v>
+        <v>0.009399628888758671</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H30">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N30">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O30">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P30">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q30">
-        <v>8853.971144258374</v>
+        <v>9625.73479970072</v>
       </c>
       <c r="R30">
-        <v>8853.971144258374</v>
+        <v>86631.61319730648</v>
       </c>
       <c r="S30">
-        <v>0.1697476060190103</v>
+        <v>0.154871402840848</v>
       </c>
       <c r="T30">
-        <v>0.1697476060190103</v>
+        <v>0.154871402840848</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H31">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N31">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O31">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P31">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q31">
-        <v>2205.078049670537</v>
+        <v>2925.898185395754</v>
       </c>
       <c r="R31">
-        <v>2205.078049670537</v>
+        <v>26333.08366856179</v>
       </c>
       <c r="S31">
-        <v>0.04227557487121161</v>
+        <v>0.0470756743221121</v>
       </c>
       <c r="T31">
-        <v>0.04227557487121161</v>
+        <v>0.04707567432211211</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H32">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.26584608635949</v>
+        <v>8.394385333333334</v>
       </c>
       <c r="N32">
-        <v>7.26584608635949</v>
+        <v>25.183156</v>
       </c>
       <c r="O32">
-        <v>0.09093191257178947</v>
+        <v>0.0956753723079781</v>
       </c>
       <c r="P32">
-        <v>0.09093191257178947</v>
+        <v>0.09567537230797811</v>
       </c>
       <c r="Q32">
-        <v>305.9315786642894</v>
+        <v>382.3698286033232</v>
       </c>
       <c r="R32">
-        <v>305.9315786642894</v>
+        <v>3441.328457429908</v>
       </c>
       <c r="S32">
-        <v>0.005865295045326186</v>
+        <v>0.006152065581700054</v>
       </c>
       <c r="T32">
-        <v>0.005865295045326186</v>
+        <v>0.006152065581700054</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H33">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>10.4947162737205</v>
+        <v>10.728784</v>
       </c>
       <c r="N33">
-        <v>10.4947162737205</v>
+        <v>32.186352</v>
       </c>
       <c r="O33">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="P33">
-        <v>0.1313411557752715</v>
+        <v>0.1222817827454047</v>
       </c>
       <c r="Q33">
-        <v>441.8845484878426</v>
+        <v>488.7032386888374</v>
       </c>
       <c r="R33">
-        <v>441.8845484878426</v>
+        <v>4398.329148199536</v>
       </c>
       <c r="S33">
-        <v>0.008471774192673342</v>
+        <v>0.007862896466975093</v>
       </c>
       <c r="T33">
-        <v>0.008471774192673342</v>
+        <v>0.007862896466975095</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H34">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.36087346180102</v>
+        <v>2.472198666666666</v>
       </c>
       <c r="N34">
-        <v>2.36087346180102</v>
+        <v>7.416595999999999</v>
       </c>
       <c r="O34">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="P34">
-        <v>0.02954628224572147</v>
+        <v>0.0281769919369066</v>
       </c>
       <c r="Q34">
-        <v>99.405593871766</v>
+        <v>112.6102916306476</v>
       </c>
       <c r="R34">
-        <v>99.405593871766</v>
+        <v>1013.492624675828</v>
       </c>
       <c r="S34">
-        <v>0.001905795863765904</v>
+        <v>0.001811821559814595</v>
       </c>
       <c r="T34">
-        <v>0.001905795863765904</v>
+        <v>0.001811821559814596</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H35">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.8242313485253</v>
+        <v>2.941697666666666</v>
       </c>
       <c r="N35">
-        <v>2.8242313485253</v>
+        <v>8.825092999999999</v>
       </c>
       <c r="O35">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026181</v>
       </c>
       <c r="P35">
-        <v>0.03534519655580595</v>
+        <v>0.03352812723026182</v>
       </c>
       <c r="Q35">
-        <v>118.9154772476653</v>
+        <v>133.9962829844832</v>
       </c>
       <c r="R35">
-        <v>118.9154772476653</v>
+        <v>1205.966546860349</v>
       </c>
       <c r="S35">
-        <v>0.002279837742015824</v>
+        <v>0.002155907341423055</v>
       </c>
       <c r="T35">
-        <v>0.002279837742015824</v>
+        <v>0.002155907341423056</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H36">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>45.6015360424476</v>
+        <v>48.46838633333333</v>
       </c>
       <c r="N36">
-        <v>45.6015360424476</v>
+        <v>145.405159</v>
       </c>
       <c r="O36">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="P36">
-        <v>0.5707022746237113</v>
+        <v>0.5524205434309247</v>
       </c>
       <c r="Q36">
-        <v>1920.072314382388</v>
+        <v>2207.767196647988</v>
       </c>
       <c r="R36">
-        <v>1920.072314382388</v>
+        <v>19869.90476983189</v>
       </c>
       <c r="S36">
-        <v>0.03681146837271417</v>
+        <v>0.035521444337061</v>
       </c>
       <c r="T36">
-        <v>0.03681146837271417</v>
+        <v>0.035521444337061</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H37">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.3570447113631</v>
+        <v>14.732752</v>
       </c>
       <c r="N37">
-        <v>11.3570447113631</v>
+        <v>44.198256</v>
       </c>
       <c r="O37">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="P37">
-        <v>0.1421331782277005</v>
+        <v>0.167917182348524</v>
       </c>
       <c r="Q37">
-        <v>478.1932587356939</v>
+        <v>671.0866410582454</v>
       </c>
       <c r="R37">
-        <v>478.1932587356939</v>
+        <v>6039.779769524208</v>
       </c>
       <c r="S37">
-        <v>0.009167881797022997</v>
+        <v>0.01079731902978196</v>
       </c>
       <c r="T37">
-        <v>0.009167881797022997</v>
+        <v>0.01079731902978197</v>
       </c>
     </row>
   </sheetData>
